--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1855584.120759774</v>
+        <v>-1856020.43643422</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.883499685</v>
+        <v>218615.8834996846</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.21793576408611</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>150.2931006948956</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.26536288365013</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -795,16 +795,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>224.5827838371091</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>35.02727269676041</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>100.68280137235</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>347.6375685141236</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>149.9249628994414</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>86.73904992433341</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1029,19 +1029,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>56.43218839206069</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>46.16685623779806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.2904214943273</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>82.44613879902393</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -1196,10 +1196,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>76.20938313250565</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>11.82526744620873</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1221,16 +1221,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>91.6622655999074</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>69.53079011854132</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.422097342314225</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>261.7984634550456</v>
       </c>
       <c r="G11" t="n">
-        <v>320.048489265321</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825903</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091666</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.442025508113</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>40.23180280747984</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.05607453749157</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548197</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126142</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944773</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079557</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348599</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831534</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673265</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553164</v>
@@ -1585,16 +1585,16 @@
         <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046128</v>
+        <v>52.58018660614559</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.2086467078059</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>3.23262054877506</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799212</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
         <v>318.1152213678984</v>
@@ -1622,10 +1622,10 @@
         <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436308</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825896</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091658</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>16.93478880649389</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548873</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790351</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D16" t="n">
-        <v>59.6467168254819</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126135</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944766</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G16" t="n">
-        <v>75.3360937307955</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348592</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831527</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673258</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>138.9527062374449</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
-        <v>126.4546018103471</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>42.58152541611592</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
         <v>137.045482048545</v>
@@ -1971,10 +1971,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612604</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189421</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970851</v>
       </c>
       <c r="I26" t="n">
-        <v>42.4279579417134</v>
+        <v>42.42795794171326</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437103</v>
+        <v>56.69561675437089</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472039</v>
+        <v>93.45428794472025</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615672</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X26" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595748</v>
+        <v>53.05874613595734</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135796</v>
+        <v>39.25874098135782</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893635</v>
+        <v>22.88010537893621</v>
       </c>
       <c r="E28" t="n">
-        <v>21.8278552347158</v>
+        <v>21.82785523471566</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290211</v>
+        <v>22.29477956290197</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424994</v>
+        <v>38.5694822842498</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694036</v>
+        <v>29.11784990694022</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176971</v>
+        <v>14.09994509176957</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018702</v>
+        <v>19.36549471018688</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877077</v>
+        <v>82.91159610877062</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542126</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355831</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806713</v>
+        <v>91.15373835806699</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612604</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189421</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.4279579417134</v>
+        <v>42.42795794171326</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437103</v>
+        <v>56.69561675437089</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472039</v>
+        <v>93.45428794472025</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615672</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581941</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595748</v>
+        <v>53.05874613595734</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135796</v>
+        <v>39.25874098135782</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893635</v>
+        <v>22.88010537893621</v>
       </c>
       <c r="E31" t="n">
-        <v>21.8278552347158</v>
+        <v>21.82785523471566</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290211</v>
+        <v>22.29477956290197</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424994</v>
+        <v>38.5694822842498</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694036</v>
+        <v>29.11784990694022</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176971</v>
+        <v>14.09994509176957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018702</v>
+        <v>19.36549471018688</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877077</v>
+        <v>82.91159610877062</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542126</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355831</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806713</v>
+        <v>91.15373835806699</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.3271756360891</v>
+        <v>253.327175636089</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382988</v>
+        <v>232.3197966382987</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961815</v>
+        <v>273.2337502961814</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654207</v>
+        <v>34.31309831654201</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.5807571291997</v>
+        <v>48.58075712919964</v>
       </c>
       <c r="T32" t="n">
-        <v>85.33942831954906</v>
+        <v>85.339428319549</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762682</v>
+        <v>196.8335528762681</v>
       </c>
       <c r="W32" t="n">
-        <v>222.1336523542251</v>
+        <v>222.133652354225</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869717</v>
+        <v>241.4339105869716</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831705</v>
+        <v>252.8305083831704</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078614</v>
+        <v>44.94388651078609</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618663</v>
+        <v>31.14388135618657</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376502</v>
+        <v>14.76524575376496</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954446</v>
+        <v>13.71299560954441</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773077</v>
+        <v>14.17991993773072</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907861</v>
+        <v>30.45462265907855</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176903</v>
+        <v>21.00299028176897</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598377</v>
+        <v>5.985085466598321</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501569</v>
+        <v>11.25063508501563</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359943</v>
+        <v>74.79673648359937</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572807</v>
+        <v>94.07123516572801</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.518908981025</v>
+        <v>146.5189089810249</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682811</v>
+        <v>92.16401097682805</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.0388787328958</v>
+        <v>83.03887873289574</v>
       </c>
     </row>
     <row r="35">
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3882,7 +3882,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4110,7 +4110,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.751153464857</v>
+        <v>860.515516158428</v>
       </c>
       <c r="C2" t="n">
-        <v>1593.817394797665</v>
+        <v>860.515516158428</v>
       </c>
       <c r="D2" t="n">
-        <v>1220.993430024888</v>
+        <v>860.515516158428</v>
       </c>
       <c r="E2" t="n">
-        <v>1220.993430024888</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="F2" t="n">
-        <v>806.8422393350586</v>
+        <v>51.57860557470513</v>
       </c>
       <c r="G2" t="n">
-        <v>390.7382527892466</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H2" t="n">
-        <v>57.91697838655585</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J2" t="n">
         <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>228.7015208236834</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086297</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>969.8260601617176</v>
+        <v>1064.258313848256</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849433</v>
+        <v>1442.589672535971</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322267</v>
+        <v>1747.594257008805</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.31889977832</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464857</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464857</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.751153464857</v>
+        <v>1660.753920691723</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.751153464857</v>
+        <v>1405.868584405717</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.751153464857</v>
+        <v>1405.868584405717</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.751153464857</v>
+        <v>1254.05737158259</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.751153464857</v>
+        <v>1254.05737158259</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.751153464857</v>
+        <v>860.515516158428</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>594.1195097918549</v>
+        <v>771.7997736282124</v>
       </c>
       <c r="C3" t="n">
-        <v>432.4158370328096</v>
+        <v>610.0961008691671</v>
       </c>
       <c r="D3" t="n">
-        <v>293.5772000230216</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5491900798929</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8973083792362</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8973083792362</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H3" t="n">
         <v>107.8973083792362</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K3" t="n">
         <v>269.0055756294858</v>
       </c>
       <c r="L3" t="n">
-        <v>269.0055756294858</v>
+        <v>634.8274207996014</v>
       </c>
       <c r="M3" t="n">
-        <v>754.0389291397123</v>
+        <v>634.8274207996014</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619415</v>
+        <v>1123.825831282154</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403566</v>
+        <v>1516.025782066305</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679263</v>
+        <v>1818.121701342002</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R3" t="n">
-        <v>1975.751153464857</v>
+        <v>1915.966884559804</v>
       </c>
       <c r="S3" t="n">
-        <v>1822.951666477598</v>
+        <v>1763.167397572544</v>
       </c>
       <c r="T3" t="n">
-        <v>1634.266562643583</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="U3" t="n">
-        <v>1415.771770241893</v>
+        <v>1355.987501336839</v>
       </c>
       <c r="V3" t="n">
-        <v>1187.376147690227</v>
+        <v>1129.136204531679</v>
       </c>
       <c r="W3" t="n">
-        <v>946.0602789235369</v>
+        <v>1129.136204531679</v>
       </c>
       <c r="X3" t="n">
-        <v>946.0602789235369</v>
+        <v>931.2192164094733</v>
       </c>
       <c r="Y3" t="n">
-        <v>753.5389525731157</v>
+        <v>931.2192164094733</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.7180674666186</v>
+        <v>388.0188996308499</v>
       </c>
       <c r="C4" t="n">
-        <v>183.7180674666186</v>
+        <v>352.6378160987687</v>
       </c>
       <c r="D4" t="n">
-        <v>183.7180674666186</v>
+        <v>352.6378160987687</v>
       </c>
       <c r="E4" t="n">
-        <v>183.7180674666186</v>
+        <v>352.6378160987687</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7180674666186</v>
+        <v>352.6378160987687</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7180674666186</v>
+        <v>183.7180674666187</v>
       </c>
       <c r="H4" t="n">
-        <v>183.7180674666186</v>
+        <v>183.7180674666187</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394055</v>
+        <v>73.11921081394058</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>173.7262902142001</v>
       </c>
       <c r="M4" t="n">
         <v>291.7197963418018</v>
@@ -4501,37 +4501,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>508.6057845870919</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="U4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="V4" t="n">
-        <v>469.8744689492195</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="W4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="X4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1788.522178095212</v>
+        <v>1322.085588857994</v>
       </c>
       <c r="C5" t="n">
-        <v>1788.522178095212</v>
+        <v>940.1518301908018</v>
       </c>
       <c r="D5" t="n">
-        <v>1437.373118990036</v>
+        <v>567.3278654180253</v>
       </c>
       <c r="E5" t="n">
-        <v>1042.587399096143</v>
+        <v>567.3278654180253</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4362084063132</v>
+        <v>557.2170787685998</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605011</v>
+        <v>545.1534962631919</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>212.3322218605012</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J5" t="n">
-        <v>39.51502306929715</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K5" t="n">
-        <v>279.6553951140799</v>
+        <v>228.7015208236843</v>
       </c>
       <c r="L5" t="n">
-        <v>627.5407681990262</v>
+        <v>576.5868939086306</v>
       </c>
       <c r="M5" t="n">
-        <v>1020.779934452114</v>
+        <v>969.8260601617185</v>
       </c>
       <c r="N5" t="n">
-        <v>1399.11129313983</v>
+        <v>1348.157418849434</v>
       </c>
       <c r="O5" t="n">
-        <v>1704.115877612664</v>
+        <v>1653.162003322268</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.31889977832</v>
+        <v>1881.318899778321</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464857</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="S5" t="n">
-        <v>1788.522178095212</v>
+        <v>1697.883891591066</v>
       </c>
       <c r="T5" t="n">
-        <v>1788.522178095212</v>
+        <v>1473.524945322077</v>
       </c>
       <c r="U5" t="n">
-        <v>1788.522178095212</v>
+        <v>1473.524945322077</v>
       </c>
       <c r="V5" t="n">
-        <v>1788.522178095212</v>
+        <v>1322.085588857994</v>
       </c>
       <c r="W5" t="n">
-        <v>1788.522178095212</v>
+        <v>1322.085588857994</v>
       </c>
       <c r="X5" t="n">
-        <v>1788.522178095212</v>
+        <v>1322.085588857994</v>
       </c>
       <c r="Y5" t="n">
-        <v>1788.522178095212</v>
+        <v>1322.085588857994</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.8277835713412</v>
+        <v>637.51839043634</v>
       </c>
       <c r="C6" t="n">
-        <v>757.124110812296</v>
+        <v>637.51839043634</v>
       </c>
       <c r="D6" t="n">
-        <v>618.285473802508</v>
+        <v>549.9031884925689</v>
       </c>
       <c r="E6" t="n">
-        <v>471.2574638593792</v>
+        <v>402.8751785494402</v>
       </c>
       <c r="F6" t="n">
-        <v>336.5636658092535</v>
+        <v>268.1813804993145</v>
       </c>
       <c r="G6" t="n">
-        <v>207.8351658325381</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J6" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K6" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="L6" t="n">
-        <v>405.3368682394128</v>
+        <v>307.4235194122313</v>
       </c>
       <c r="M6" t="n">
-        <v>890.3702217496393</v>
+        <v>792.4568729224577</v>
       </c>
       <c r="N6" t="n">
-        <v>1281.455283405009</v>
+        <v>1281.45528340501</v>
       </c>
       <c r="O6" t="n">
-        <v>1673.65523418916</v>
+        <v>1673.655234189161</v>
       </c>
       <c r="P6" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559803</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572543</v>
+        <v>1822.951666477598</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738529</v>
+        <v>1634.266562643583</v>
       </c>
       <c r="U6" t="n">
-        <v>1574.482293738529</v>
+        <v>1415.771770241894</v>
       </c>
       <c r="V6" t="n">
-        <v>1517.480083241498</v>
+        <v>1187.376147690228</v>
       </c>
       <c r="W6" t="n">
-        <v>1276.164214474808</v>
+        <v>1187.376147690228</v>
       </c>
       <c r="X6" t="n">
-        <v>1078.247226352602</v>
+        <v>989.4591595680221</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.247226352602</v>
+        <v>796.9378332176009</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="C7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="D7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="E7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="F7" t="n">
-        <v>571.5742683152296</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="G7" t="n">
-        <v>402.6545196830796</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H7" t="n">
-        <v>243.7753060524459</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I7" t="n">
-        <v>99.57226165512444</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929715</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394055</v>
+        <v>73.11921081394058</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7262902142</v>
+        <v>173.7262902142001</v>
       </c>
       <c r="M7" t="n">
         <v>291.7197963418018</v>
@@ -4738,37 +4738,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O7" t="n">
-        <v>508.6057845870918</v>
+        <v>508.6057845870919</v>
       </c>
       <c r="P7" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689187</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689187</v>
       </c>
       <c r="S7" t="n">
-        <v>571.5742683152296</v>
+        <v>319.3271643726063</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="U7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="V7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="W7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="X7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
       <c r="Y7" t="n">
-        <v>571.5742683152296</v>
+        <v>86.1482111882851</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>551.517957376259</v>
+        <v>1346.701467263108</v>
       </c>
       <c r="C8" t="n">
-        <v>468.2390292964369</v>
+        <v>1346.701467263108</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1689.624883421327</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>1689.624883421327</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V8" t="n">
-        <v>1689.624883421327</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W8" t="n">
-        <v>1327.089953278928</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="X8" t="n">
-        <v>945.059812800421</v>
+        <v>1346.701467263108</v>
       </c>
       <c r="Y8" t="n">
-        <v>551.517957376259</v>
+        <v>1346.701467263108</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>703.195773126389</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>350.0226984248806</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>202.9946884817518</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,22 +4884,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>1253.053530380276</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>1055.136542258071</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.6152159076499</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.5139253141033</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="C10" t="n">
-        <v>346.5139253141033</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="D10" t="n">
-        <v>346.5139253141033</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="E10" t="n">
-        <v>194.5049110754221</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U10" t="n">
-        <v>535.5461600008207</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V10" t="n">
-        <v>530.0692939984831</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="W10" t="n">
-        <v>530.0692939984831</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="X10" t="n">
-        <v>530.0692939984831</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.0692939984831</v>
+        <v>172.3146160188864</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1366.779107661972</v>
+        <v>1589.894774123753</v>
       </c>
       <c r="C11" t="n">
-        <v>1077.668033252389</v>
+        <v>1300.783699714169</v>
       </c>
       <c r="D11" t="n">
-        <v>1077.668033252389</v>
+        <v>1020.782419199002</v>
       </c>
       <c r="E11" t="n">
-        <v>775.7049976161044</v>
+        <v>718.8193835627176</v>
       </c>
       <c r="F11" t="n">
         <v>454.3764911838837</v>
@@ -5036,28 +5036,28 @@
         <v>131.0951888956807</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J11" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>545.1906163614394</v>
+        <v>441.9411058614141</v>
       </c>
       <c r="L11" t="n">
-        <v>984.0515022872682</v>
+        <v>789.8264789463603</v>
       </c>
       <c r="M11" t="n">
-        <v>1455.992183722096</v>
+        <v>1274.041158040331</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.299055250694</v>
+        <v>1743.348029568929</v>
       </c>
       <c r="O11" t="n">
-        <v>2230.303639723528</v>
+        <v>2139.328126882646</v>
       </c>
       <c r="P11" t="n">
-        <v>2458.460536179582</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q11" t="n">
         <v>2552.892789866119</v>
@@ -5066,25 +5066,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U11" t="n">
-        <v>2298.564774963853</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="V11" t="n">
-        <v>2298.564774963853</v>
+        <v>2148.814476229441</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.926590309833</v>
+        <v>1879.10223034465</v>
       </c>
       <c r="X11" t="n">
-        <v>1968.719134088935</v>
+        <v>1589.894774123753</v>
       </c>
       <c r="Y11" t="n">
-        <v>1667.999962922382</v>
+        <v>1589.894774123753</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H12" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,22 +5142,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
         <v>1267.641586535707</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>424.2215694517706</v>
+        <v>253.6302505869857</v>
       </c>
       <c r="C13" t="n">
-        <v>424.2215694517706</v>
+        <v>176.836965306275</v>
       </c>
       <c r="D13" t="n">
-        <v>363.9723605371424</v>
+        <v>176.836965306275</v>
       </c>
       <c r="E13" t="n">
-        <v>304.7860305560702</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="F13" t="n">
-        <v>245.1280598394563</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0309954649153</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499894</v>
+        <v>83.21408766499904</v>
       </c>
       <c r="K13" t="n">
-        <v>207.793788250525</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916671</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601514</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506343</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5221,28 +5221,28 @@
         <v>1214.33147454359</v>
       </c>
       <c r="R13" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076874</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501619</v>
+        <v>953.0881272781749</v>
       </c>
       <c r="U13" t="n">
-        <v>702.021474896871</v>
+        <v>758.7205720248837</v>
       </c>
       <c r="V13" t="n">
-        <v>702.021474896871</v>
+        <v>590.8079518409154</v>
       </c>
       <c r="W13" t="n">
-        <v>702.021474896871</v>
+        <v>397.4742346159237</v>
       </c>
       <c r="X13" t="n">
-        <v>563.5916950498558</v>
+        <v>397.4742346159237</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.3792204997419</v>
+        <v>344.3629350137564</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.931896679061</v>
+        <v>1646.780388177139</v>
       </c>
       <c r="C14" t="n">
-        <v>1320.931896679061</v>
+        <v>1357.669313767556</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.66662339747</v>
+        <v>1077.668033252388</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.703587761186</v>
+        <v>775.7049976161043</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3750813289652</v>
+        <v>454.3764911838837</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407623</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956806</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
@@ -5285,43 +5285,43 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M14" t="n">
-        <v>1183.065645199448</v>
+        <v>1195.339642858591</v>
       </c>
       <c r="N14" t="n">
-        <v>1652.372516728046</v>
+        <v>1664.646514387189</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.352614041763</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.485023338698</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866118</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2329.09116498087</v>
+        <v>2537.927870825</v>
       </c>
       <c r="U14" t="n">
-        <v>2167.028512952474</v>
+        <v>2537.927870825</v>
       </c>
       <c r="V14" t="n">
-        <v>1922.871923106024</v>
+        <v>2537.927870825</v>
       </c>
       <c r="W14" t="n">
-        <v>1922.871923106024</v>
+        <v>2537.927870825</v>
       </c>
       <c r="X14" t="n">
-        <v>1922.871923106024</v>
+        <v>2248.720414604102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1622.152751939471</v>
+        <v>1948.001243437549</v>
       </c>
     </row>
     <row r="15">
@@ -5334,10 +5334,10 @@
         <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
         <v>482.8431151521678</v>
@@ -5361,7 +5361,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>501.0148547324809</v>
+        <v>358.3678293948231</v>
       </c>
       <c r="C16" t="n">
-        <v>424.2215694517703</v>
+        <v>281.5745441141124</v>
       </c>
       <c r="D16" t="n">
-        <v>363.972360537142</v>
+        <v>221.3253351994842</v>
       </c>
       <c r="E16" t="n">
-        <v>304.78603055607</v>
+        <v>162.139005218412</v>
       </c>
       <c r="F16" t="n">
-        <v>245.1280598394561</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0309954649152</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017981</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499908</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505252</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916673</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601517</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506347</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5458,28 +5458,28 @@
         <v>1214.331474543591</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S16" t="n">
-        <v>1036.745299076875</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501626</v>
+        <v>953.0881272781751</v>
       </c>
       <c r="U16" t="n">
-        <v>768.6571091296099</v>
+        <v>953.0881272781751</v>
       </c>
       <c r="V16" t="n">
-        <v>768.6571091296099</v>
+        <v>910.0764854437149</v>
       </c>
       <c r="W16" t="n">
-        <v>768.6571091296099</v>
+        <v>716.7427682187231</v>
       </c>
       <c r="X16" t="n">
-        <v>630.2273292825947</v>
+        <v>578.3129883717078</v>
       </c>
       <c r="Y16" t="n">
-        <v>501.0148547324809</v>
+        <v>449.1005138215938</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L17" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N17" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O17" t="n">
-        <v>1827.875829091314</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P17" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5619,7 +5619,7 @@
         <v>2495.249449199233</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
         <v>2168.477475838063</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C19" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="F19" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="G19" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="D19" t="n">
+      <c r="H19" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="E19" t="n">
-        <v>64.37647391795821</v>
-      </c>
-      <c r="F19" t="n">
-        <v>79.39795846875474</v>
-      </c>
-      <c r="G19" t="n">
-        <v>78.28534634413701</v>
-      </c>
-      <c r="H19" t="n">
-        <v>78.28534634413701</v>
-      </c>
       <c r="I19" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J19" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K19" t="n">
-        <v>111.8895340887804</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L19" t="n">
-        <v>212.4966134890399</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M19" t="n">
-        <v>330.4901196166417</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N19" t="n">
-        <v>448.912461366242</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O19" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P19" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q19" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R19" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S19" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T19" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U19" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V19" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3310894670033</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X19" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478544</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614935</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K20" t="n">
-        <v>403.41534659273</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L20" t="n">
-        <v>915.7684941687086</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M20" t="n">
-        <v>1473.475434912829</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N20" t="n">
-        <v>1851.806793600545</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O20" t="n">
-        <v>2156.811378073378</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P20" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5792,7 +5792,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
         <v>1588.124215583246</v>
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5923,10 +5923,10 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O22" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P22" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q22" t="n">
         <v>629.3786802696717</v>
@@ -5981,34 +5981,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J23" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>479.0485364810487</v>
       </c>
       <c r="L23" t="n">
-        <v>915.7684941687087</v>
+        <v>991.4016840570273</v>
       </c>
       <c r="M23" t="n">
-        <v>1309.007660421797</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N23" t="n">
-        <v>1851.806793600545</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073378</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6017,13 +6017,13 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
         <v>2028.08193847085</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C24" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E24" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F24" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G24" t="n">
         <v>219.4208171253267</v>
@@ -6063,7 +6063,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
@@ -6090,28 +6090,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S24" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="25">
@@ -6136,28 +6136,28 @@
         <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J25" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K25" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L25" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
         <v>566.4101965415339</v>
@@ -6203,64 +6203,64 @@
         <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.737273613386</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413124</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132565</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487432</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006427</v>
+        <v>216.9651972767699</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183883</v>
+        <v>584.4800274945155</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576297</v>
+        <v>1059.739858752425</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178478</v>
+        <v>1580.353483178475</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039156</v>
+        <v>2086.059300039154</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684953</v>
+        <v>2518.438342684951</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313969</v>
+        <v>2873.969697313967</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173469</v>
+        <v>3095.776409173467</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743718</v>
+        <v>3134.316282743716</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991828</v>
+        <v>3077.047982991826</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340595</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186042</v>
+        <v>2650.706453186041</v>
       </c>
       <c r="W26" t="n">
         <v>2418.132198661399</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E27" t="n">
-        <v>494.4287664449564</v>
+        <v>479.7161489848519</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7349683948307</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G27" t="n">
-        <v>231.0064684181153</v>
+        <v>216.2938509580109</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648134</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487432</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6327,28 +6327,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042402</v>
+        <v>252.6345665042392</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836766</v>
+        <v>212.9792725836757</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291955</v>
+        <v>189.8680550291947</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082704</v>
+        <v>167.8197164082698</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518037</v>
+        <v>145.2997370518032</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374098</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443972</v>
+        <v>76.92869443443954</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487432</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898678</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8028720345112</v>
+        <v>164.8028720345113</v>
       </c>
       <c r="L28" t="n">
-        <v>392.7844096077334</v>
+        <v>280.748557603132</v>
       </c>
       <c r="M28" t="n">
-        <v>638.1523739082979</v>
+        <v>526.1165219036966</v>
       </c>
       <c r="N28" t="n">
-        <v>883.9491738308611</v>
+        <v>771.9133218262598</v>
       </c>
       <c r="O28" t="n">
-        <v>997.7514264949149</v>
+        <v>997.7514264949124</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223053</v>
+        <v>1060.71991022305</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T28" t="n">
-        <v>943.795449829509</v>
+        <v>943.7954498295071</v>
       </c>
       <c r="U28" t="n">
-        <v>786.565885936365</v>
+        <v>786.5658859363632</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125437</v>
+        <v>655.7912571125421</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476989</v>
+        <v>499.5955312476974</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608308</v>
+        <v>398.3037427608294</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.229259570864</v>
+        <v>306.2292595708628</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044544</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889523</v>
+        <v>1143.562317889522</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133863</v>
+        <v>878.7372736133854</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413127</v>
+        <v>594.5467585413119</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132567</v>
+        <v>308.403447613256</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006427</v>
+        <v>216.9651972767694</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183883</v>
+        <v>584.4800274945151</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576297</v>
+        <v>1059.739858752424</v>
       </c>
       <c r="M29" t="n">
-        <v>1625.447614002348</v>
+        <v>1580.353483178475</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.153430863027</v>
+        <v>2086.059300039154</v>
       </c>
       <c r="O29" t="n">
-        <v>2563.532473508823</v>
+        <v>2518.43834268495</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313968</v>
+        <v>2873.969697313967</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173468</v>
+        <v>3095.776409173467</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743717</v>
+        <v>3134.316282743715</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991828</v>
+        <v>3077.047982991826</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340595</v>
+        <v>2982.649712340593</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672343</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186043</v>
+        <v>2650.706453186041</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.1321986614</v>
+        <v>2418.132198661398</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800649</v>
+        <v>2166.062733800648</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994242</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C30" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D30" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E30" t="n">
         <v>494.4287664449564</v>
@@ -6534,19 +6534,19 @@
         <v>231.0064684181153</v>
       </c>
       <c r="H30" t="n">
-        <v>131.0686109648134</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9404721879805</v>
+        <v>122.9404721879804</v>
       </c>
       <c r="K30" t="n">
         <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182847</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6564,28 +6564,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S30" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U30" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W30" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X30" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042402</v>
+        <v>252.6345665042392</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836766</v>
+        <v>212.9792725836757</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291955</v>
+        <v>189.8680550291947</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082704</v>
+        <v>167.8197164082698</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518032</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374098</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443971</v>
+        <v>76.92869443443954</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898678</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074739</v>
+        <v>292.1773302074743</v>
       </c>
       <c r="L31" t="n">
-        <v>520.1588677806961</v>
+        <v>520.1588677806967</v>
       </c>
       <c r="M31" t="n">
-        <v>765.5268320812606</v>
+        <v>765.5268320812613</v>
       </c>
       <c r="N31" t="n">
-        <v>899.2877799992252</v>
+        <v>883.9491738308617</v>
       </c>
       <c r="O31" t="n">
-        <v>997.7514264949149</v>
+        <v>1087.355436414356</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223053</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.795449829509</v>
+        <v>943.7954498295071</v>
       </c>
       <c r="U31" t="n">
-        <v>786.565885936365</v>
+        <v>786.5658859363632</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125437</v>
+        <v>655.7912571125421</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476989</v>
+        <v>499.5955312476974</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608308</v>
+        <v>398.3037427608294</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.229259570864</v>
+        <v>306.2292595708628</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732584</v>
+        <v>1578.511661732583</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.735406587361</v>
+        <v>1334.73540658736</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646304</v>
+        <v>843.4407289646301</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967702</v>
+        <v>567.4470417967701</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729278</v>
+        <v>289.5005587729277</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220667</v>
+        <v>94.83678789220662</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J32" t="n">
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443254</v>
+        <v>643.1323473443256</v>
       </c>
       <c r="L32" t="n">
         <v>1126.425889631154</v>
@@ -6710,40 +6710,40 @@
         <v>1655.073225086124</v>
       </c>
       <c r="N32" t="n">
-        <v>2168.812752975723</v>
+        <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204973</v>
+        <v>2473.817337448556</v>
       </c>
       <c r="P32" t="n">
-        <v>2867.848792862908</v>
+        <v>2837.382403106492</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549445</v>
+        <v>2962.281046549444</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148613</v>
+        <v>3008.854631148612</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300937</v>
+        <v>2959.783159300936</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553918</v>
+        <v>2873.581716553917</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789882</v>
+        <v>2756.853883789881</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587363</v>
+        <v>2333.654686587362</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630826</v>
+        <v>2089.782049630825</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728634</v>
+        <v>1834.397697728633</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428439</v>
+        <v>192.7475381428434</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264937</v>
+        <v>161.2890721264934</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762261</v>
+        <v>146.3746824762258</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595145</v>
+        <v>132.5231717595142</v>
       </c>
       <c r="F34" t="n">
-        <v>118.2000203072612</v>
+        <v>118.200020307261</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708077</v>
+        <v>87.43777519708063</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832417</v>
+        <v>66.22263349832409</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
-        <v>116.1521360451183</v>
+        <v>136.7231622868854</v>
       </c>
       <c r="K34" t="n">
-        <v>149.7563237897617</v>
+        <v>170.3273500315288</v>
       </c>
       <c r="L34" t="n">
-        <v>250.3634031900212</v>
+        <v>270.9344294317883</v>
       </c>
       <c r="M34" t="n">
-        <v>368.3569093176229</v>
+        <v>388.9279355593901</v>
       </c>
       <c r="N34" t="n">
-        <v>486.7792510672233</v>
+        <v>507.3502773089904</v>
       </c>
       <c r="O34" t="n">
-        <v>720.6510667647954</v>
+        <v>741.2220930065625</v>
       </c>
       <c r="P34" t="n">
-        <v>919.0277196948155</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779526</v>
+        <v>1005.301162779525</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051835</v>
+        <v>929.7489037051827</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428319</v>
+        <v>834.7274540428311</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539014</v>
+        <v>685.6947180539006</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342935</v>
+        <v>563.1169171342929</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736622</v>
+        <v>415.1180191736615</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910075</v>
+        <v>322.0230585910069</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052541</v>
+        <v>238.1454033052536</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>163.2749745479473</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>403.41534659273</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.060512746685</v>
+        <v>751.3007196776763</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.40052821597</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>66.58441399778673</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>81.60589854858326</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>80.49328642396553</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>88.75993133416418</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479473</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>403.41534659273</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776764</v>
+        <v>751.3007196776763</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
         <v>2220.500500038399</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208573</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7409,28 +7409,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>163.2749745479474</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>403.4153465927301</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>751.3007196776764</v>
+        <v>826.9339095659944</v>
       </c>
       <c r="M41" t="n">
-        <v>1144.539885930764</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N41" t="n">
-        <v>1522.87124461848</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>1827.875829091314</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
         <v>1282.354203995812</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G43" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D43" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="E43" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="F43" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="G43" t="n">
-        <v>64.43007423039064</v>
-      </c>
       <c r="H43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>98.03426197503406</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>198.6413413752936</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>316.6348475028953</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>435.0571892524957</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>533.5208357481854</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>596.4893194763232</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>692.1751396617387</v>
+        <v>403.4153465927299</v>
       </c>
       <c r="L44" t="n">
-        <v>1080.236268659741</v>
+        <v>915.7684941687085</v>
       </c>
       <c r="M44" t="n">
-        <v>1473.475434912829</v>
+        <v>1309.007660421796</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
         <v>2156.811378073378</v>
@@ -7682,7 +7682,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W44" t="n">
         <v>2028.08193847085</v>
@@ -7749,13 +7749,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
         <v>1949.982683436373</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>54.02211951749096</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7804,52 +7804,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373986</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683833</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686428</v>
+        <v>231.5307021686424</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962445</v>
+        <v>349.5242082962442</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458449</v>
+        <v>467.9465500458446</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415346</v>
+        <v>566.4101965415342</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433856</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>297.1946741574615</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>555.5593461905163</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,13 +8061,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>480.0936506431656</v>
+        <v>600.6529294339228</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>272.9568602558584</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>297.1946741574624</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8697607336382</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8298,13 +8298,13 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>383.1900763417883</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>501.7505568812134</v>
+        <v>600.6529294339228</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8532,13 +8532,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>387.98835840707</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8772,7 +8772,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100157</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>56.31675791285282</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>226.783320618462</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.76928304501166</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790358</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.400380052742</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>75.34016319846705</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>273.9686471612406</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>113.2861105847722</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
         <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250303</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.96927789041105</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821286</v>
+        <v>123.6519685660127</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>57571.80453706362</v>
+      </c>
+      <c r="C2" t="n">
         <v>57571.80453706363</v>
       </c>
-      <c r="C2" t="n">
-        <v>57571.80453706365</v>
-      </c>
       <c r="D2" t="n">
-        <v>57571.80453706361</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="E2" t="n">
-        <v>49999.92409795874</v>
+        <v>49999.92409795873</v>
       </c>
       <c r="F2" t="n">
         <v>49999.92409795873</v>
       </c>
       <c r="G2" t="n">
-        <v>57571.8045370636</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="H2" t="n">
+        <v>57571.80453706362</v>
+      </c>
+      <c r="I2" t="n">
         <v>57571.80453706363</v>
       </c>
-      <c r="I2" t="n">
-        <v>57571.80453706362</v>
-      </c>
       <c r="J2" t="n">
-        <v>57571.80453706368</v>
+        <v>57571.80453706363</v>
       </c>
       <c r="K2" t="n">
-        <v>57571.80453706368</v>
+        <v>57571.80453706364</v>
       </c>
       <c r="L2" t="n">
         <v>57571.80453706365</v>
       </c>
       <c r="M2" t="n">
-        <v>57571.8045370636</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="N2" t="n">
         <v>57571.80453706362</v>
       </c>
       <c r="O2" t="n">
-        <v>57571.80453706361</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="P2" t="n">
         <v>57571.8045370636</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506508</v>
+        <v>165529.9134506509</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746775</v>
+        <v>9743.038208746722</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193916</v>
+        <v>59387.68618193919</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207625</v>
+        <v>65879.57388207622</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456565</v>
+        <v>23482.50932456558</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732362</v>
+        <v>43541.16890732375</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>194229.03306035</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603501</v>
+        <v>194229.03306035</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
@@ -26439,7 +26439,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="K4" t="n">
         <v>176368.812935792</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26488,19 +26488,19 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
+        <v>52802.81689264638</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58458.01489582854</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58458.01489582853</v>
+      </c>
+      <c r="L5" t="n">
+        <v>57233.20592541149</v>
+      </c>
+      <c r="M5" t="n">
         <v>52802.81689264637</v>
-      </c>
-      <c r="J5" t="n">
-        <v>58458.01489582856</v>
-      </c>
-      <c r="K5" t="n">
-        <v>58458.01489582854</v>
-      </c>
-      <c r="L5" t="n">
-        <v>57233.2059254115</v>
-      </c>
-      <c r="M5" t="n">
-        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26522,16 +26522,16 @@
         <v>-365846.1595066031</v>
       </c>
       <c r="C6" t="n">
-        <v>-200316.2460559523</v>
+        <v>-200316.2460559522</v>
       </c>
       <c r="D6" t="n">
-        <v>-203513.0276418877</v>
+        <v>-203513.0276418876</v>
       </c>
       <c r="E6" t="n">
-        <v>-222134.5899687437</v>
+        <v>-222386.9859833806</v>
       </c>
       <c r="F6" t="n">
-        <v>-114743.7888929803</v>
+        <v>-114996.1849076171</v>
       </c>
       <c r="G6" t="n">
         <v>-230241.8190777576</v>
@@ -26543,7 +26543,7 @@
         <v>-170854.1328958184</v>
       </c>
       <c r="J6" t="n">
-        <v>-387923.5027368001</v>
+        <v>-387923.5027368002</v>
       </c>
       <c r="K6" t="n">
         <v>-177255.0232945569</v>
@@ -26552,13 +26552,13 @@
         <v>-241741.7918018248</v>
       </c>
       <c r="M6" t="n">
-        <v>-194336.6422203841</v>
+        <v>-194336.642220384</v>
       </c>
       <c r="N6" t="n">
         <v>-170854.1328958184</v>
       </c>
       <c r="O6" t="n">
-        <v>-214395.301803142</v>
+        <v>-214395.3018031422</v>
       </c>
       <c r="P6" t="n">
         <v>-170854.1328958184</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662144</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662144</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="F4" t="n">
         <v>638.7584295260717</v>
@@ -26808,19 +26808,19 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260718</v>
+      </c>
+      <c r="J4" t="n">
+        <v>783.579070685929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>783.5790706859289</v>
+      </c>
+      <c r="L4" t="n">
+        <v>752.2136577871531</v>
+      </c>
+      <c r="M4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="J4" t="n">
-        <v>783.5790706859294</v>
-      </c>
-      <c r="K4" t="n">
-        <v>783.5790706859293</v>
-      </c>
-      <c r="L4" t="n">
-        <v>752.2136577871534</v>
-      </c>
-      <c r="M4" t="n">
-        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742395</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415452</v>
+        <v>54.42646113415469</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259531</v>
+        <v>82.34946735259527</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570706</v>
+        <v>29.35313665570698</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415452</v>
+        <v>54.42646113415469</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662144</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877596</v>
+        <v>31.36541289877579</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260721</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742395</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415452</v>
+        <v>54.42646113415469</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662144</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877596</v>
+        <v>31.36541289877579</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27379,25 +27379,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>152.8710910392058</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>208.6164801460794</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>95.08149718597426</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.528882489040285</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>132.8925371461761</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27549,7 +27549,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27594,10 +27594,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4451500248116</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27616,22 +27616,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.45815661092502</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>183.6845184635766</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50.71120071535663</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>169.6794779340887</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>104.7889921866826</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4884972741916158</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27853,10 +27853,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>295.6682822814968</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>302.0004559412159</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>148.2613685852461</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.684594469717</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28017,10 +28017,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>80.95813397775302</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>252.7058540548474</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503292</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503292</v>
+        <v>79.49647998155544</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503292</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>79.49647998155547</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>79.49647998155478</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503299</v>
+        <v>81.6590337574832</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503299</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="17">
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,19 +28597,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O17" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28728,10 +28728,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>163.8988226375797</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
@@ -28746,7 +28746,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28822,16 +28822,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K20" t="n">
-        <v>40.58157162934933</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L20" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29062,10 +29062,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>116.9787331327016</v>
+      </c>
+      <c r="L23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L23" t="n">
-        <v>40.58157162934941</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615785</v>
+        <v>83.11144176675748</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M26" t="n">
-        <v>83.11144176676021</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615785</v>
+        <v>15.49354158420319</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O28" t="n">
-        <v>15.49354158420614</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615785</v>
+        <v>83.111441766757</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P29" t="n">
-        <v>83.11144176675947</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="30">
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N31" t="n">
-        <v>15.49354158420628</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.002642512934</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615785</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="32">
@@ -29782,16 +29782,16 @@
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="O32" t="n">
-        <v>30.77413106708718</v>
       </c>
       <c r="P32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>30.77413106708596</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29928,7 +29928,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
-        <v>115.9971141011266</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="P34" t="n">
-        <v>136.7759284867499</v>
+        <v>115.9971141011256</v>
       </c>
       <c r="Q34" t="n">
         <v>136.7759284867499</v>
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>40.58157162934937</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>40.58157162935001</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30150,19 +30150,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>150.2831266452243</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30244,16 +30244,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>40.58157162934938</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>40.58157162934953</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30481,16 +30481,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>40.58157162934948</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,10 +30502,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.24969386085871</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30718,22 +30718,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>40.58157162934921</v>
+      </c>
+      <c r="L44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L44" t="n">
-        <v>40.58157162934953</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30876,13 +30876,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1422830299227</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>46.68561682995335</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34699,13 +34699,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>118.3716701834148</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>368.4030316933572</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>373.3785095754573</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>159.2216688109659</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>118.3716701834157</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>178.9929516824817</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>270.6146427706405</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>395.0354158135051</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35252,13 +35252,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5044558454301</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835003</v>
+        <v>322.0625123500229</v>
       </c>
       <c r="L11" t="n">
-        <v>443.2938241675039</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>476.7077590250786</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N11" t="n">
         <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>399.9798962764814</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927734</v>
+        <v>2.162553775927762</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506392</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35574,19 +35574,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218506</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>476.707759025078</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
@@ -35662,13 +35662,13 @@
         <v>399.9798962764814</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868039</v>
+        <v>312.1205453292541</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499189</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927805</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506399</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
@@ -35820,10 +35820,10 @@
         <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218514</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,19 +35893,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O17" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36024,10 +36024,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>13.40989854128533</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444127</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K20" t="n">
-        <v>283.1476039978168</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36142,7 +36142,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36291,13 +36291,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>359.544765501169</v>
       </c>
       <c r="L23" t="n">
-        <v>391.9809383818204</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
@@ -36528,7 +36528,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573418</v>
+        <v>155.8372440625208</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M26" t="n">
-        <v>480.3227208102834</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249278</v>
+        <v>510.8139564249279</v>
       </c>
       <c r="O26" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333495</v>
+        <v>359.1225804333496</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247336</v>
+        <v>38.9291652224735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160955</v>
+        <v>69.20440266160969</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870932</v>
+        <v>117.1168541097178</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864288</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2795958813769</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O28" t="n">
-        <v>114.9517703677311</v>
+        <v>228.1192976451036</v>
       </c>
       <c r="P28" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873069</v>
+        <v>90.50910092873083</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573418</v>
+        <v>155.8372440625203</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249278</v>
+        <v>510.8139564249279</v>
       </c>
       <c r="O29" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
-        <v>313.5729533385304</v>
+        <v>359.1225804333496</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247336</v>
+        <v>38.9291652224735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160955</v>
+        <v>69.20440266160969</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460668</v>
+        <v>162.604692846067</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870932</v>
+        <v>230.2843813870933</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864288</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
-        <v>135.1120686040046</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>205.4608712964589</v>
       </c>
       <c r="P31" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873069</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552173</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392208</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>338.8595699285356</v>
+        <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585208</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>126.1602459019718</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764469</v>
+        <v>47.04402484764475</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.54044790115756</v>
+        <v>77.31926228678094</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702748</v>
+        <v>236.2341572702749</v>
       </c>
       <c r="P34" t="n">
-        <v>200.3804575050709</v>
+        <v>179.6016431194466</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390202</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>113.3073739251127</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
@@ -37324,7 +37324,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.9676864642359</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37446,19 +37446,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.522112691876029</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251127</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818205</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37558,7 +37558,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
         <v>261.5151799773428</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.3073739251128</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>468.378099885172</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37798,10 +37798,10 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.09772592801087</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109243</v>
+        <v>283.1476039978166</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9809383818205</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38029,7 +38029,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38038,7 +38038,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>46.68561682995365</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6233125255146</v>
+        <v>148.308929355468</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
